--- a/training_report.xlsx
+++ b/training_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Дата</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Тип обучения</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -468,12 +473,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Протокол №27-93-1-1-22-138 9 (Сдано ПБ обучение 1, ПБ обучение 2)</t>
+          <t>Диспечер</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.06.2022</t>
+          <t>2022-06-10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ПБ1</t>
         </is>
       </c>
     </row>
@@ -490,12 +500,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Удостоверение №2129</t>
+          <t>Диспечер</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.06.2022</t>
+          <t>2022-06-10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ПБ2</t>
         </is>
       </c>
     </row>
